--- a/medicine/Sexualité et sexologie/Prohibitionnisme_(prostitution)/Prohibitionnisme_(prostitution).xlsx
+++ b/medicine/Sexualité et sexologie/Prohibitionnisme_(prostitution)/Prohibitionnisme_(prostitution).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">S'agissant de la législation de la prostitution, le prohibitionnisme est un courant de pensée qui vise à interdire la prostitution. Relevant en général d'une condamnation morale de l'acte prostitutionnel, le prohibitionnisme entend pénaliser tous les acteurs du système prostitutionnel : le proxénète, le client de la prostitution et les personnes prostituées. Les pays nordiques, en Europe et notamment la Suède, ont interdit la prostitution en criminalisant seulement les clients et les proxénètes, les prostituées étant considérées comme des victimes.
 </t>
